--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792833.873682319</v>
+        <v>1790946.292165917</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472300.9886451631</v>
+        <v>629467.1290264254</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10694619.82863346</v>
+        <v>10694619.82863347</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>46.99863233534736</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>91.81420333947187</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>19.85734617663232</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>89.04055620987475</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.51280859554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>20.52965284373308</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>19.55317847678386</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>42.02510219382502</v>
       </c>
       <c r="G13" t="n">
-        <v>42.48454636109793</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>149.4433890341033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.380899675072</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>107.2630541056551</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>25.80452873728723</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>37.75862782376896</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>116.355432844359</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>126.9307399414726</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>23.30984749387354</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.57942905675</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.7278081576513</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>4.269136891149792</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>22.14609241444692</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329034</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789444</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>108.3618485648683</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>101.4163478156648</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2385.772804455465</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2054.709917111894</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1701.94126184178</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1328.4755035807</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1328.4755035807</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>708.0710587754925</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>708.0710587754925</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>708.0710587754925</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>708.0710587754925</v>
       </c>
       <c r="U4" t="n">
-        <v>638.1890284388842</v>
+        <v>708.0710587754925</v>
       </c>
       <c r="V4" t="n">
-        <v>383.5045402329973</v>
+        <v>708.0710587754925</v>
       </c>
       <c r="W4" t="n">
-        <v>383.5045402329973</v>
+        <v>708.0710587754925</v>
       </c>
       <c r="X4" t="n">
-        <v>383.5045402329973</v>
+        <v>708.0710587754925</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>487.2784796319623</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2530.974536881313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2312.339869853376</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2058.578084491468</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.515197147897</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1374.746541877783</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1001.280783616703</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1001.280783616703</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>113.6371076753676</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K6" t="n">
-        <v>368.8844281164661</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L6" t="n">
-        <v>773.500346212138</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M6" t="n">
         <v>1297.647259770169</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2079.343073798764</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1710.380556858352</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1352.114858251602</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>966.3266056533573</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>555.3407008637498</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186806</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186806</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186806</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4948,64 +4948,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.128984206434</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>402.8596948937493</v>
+        <v>426.2666988653375</v>
       </c>
       <c r="L12" t="n">
-        <v>1016.756764650638</v>
+        <v>1040.163768622226</v>
       </c>
       <c r="M12" t="n">
-        <v>1785.124911043099</v>
+        <v>1808.531915014687</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.124911043099</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.5850465240059</v>
+        <v>437.6964226305955</v>
       </c>
       <c r="C13" t="n">
-        <v>696.5850465240059</v>
+        <v>437.6964226305955</v>
       </c>
       <c r="D13" t="n">
-        <v>546.4684071116701</v>
+        <v>287.5797832182598</v>
       </c>
       <c r="E13" t="n">
-        <v>398.555313529277</v>
+        <v>139.6666896358667</v>
       </c>
       <c r="F13" t="n">
-        <v>251.6653660313666</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240059</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>696.5850465240059</v>
+        <v>437.6964226305955</v>
       </c>
       <c r="Y13" t="n">
-        <v>696.5850465240059</v>
+        <v>437.6964226305955</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5358,19 +5358,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.807040804714</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>1961.218619068864</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.2236783705318</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>394.2236783705318</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1347.963352341637</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1347.963352341637</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1347.963352341637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1093.27886413575</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>803.8616940987889</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X16" t="n">
-        <v>575.8721432007716</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>575.8721432007716</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5492,28 +5492,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5528,31 +5528,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>577.324810152946</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>897.6601296826478</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.071707946799</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>418.0853130833038</v>
+        <v>352.4535582568377</v>
       </c>
       <c r="C19" t="n">
-        <v>418.0853130833038</v>
+        <v>352.4535582568377</v>
       </c>
       <c r="D19" t="n">
-        <v>418.0853130833038</v>
+        <v>352.4535582568377</v>
       </c>
       <c r="E19" t="n">
-        <v>270.1722195009107</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>123.2822720030002</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>820.5263570570736</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X19" t="n">
-        <v>820.5263570570736</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y19" t="n">
-        <v>599.7337779135435</v>
+        <v>534.1020230870773</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5750,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5777,19 +5777,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>967.0546881959771</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>534.1020230870769</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>365.16584015917</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>365.16584015917</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>365.16584015917</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>754.894602230607</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X22" t="n">
-        <v>754.894602230607</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y22" t="n">
-        <v>534.1020230870769</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>865.5852378527474</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.414563824402</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>841.7907383782457</v>
+        <v>268.6754855415412</v>
       </c>
       <c r="C25" t="n">
-        <v>672.8545554503388</v>
+        <v>268.6754855415412</v>
       </c>
       <c r="D25" t="n">
-        <v>522.737916038003</v>
+        <v>268.6754855415412</v>
       </c>
       <c r="E25" t="n">
-        <v>522.737916038003</v>
+        <v>120.7623919591481</v>
       </c>
       <c r="F25" t="n">
-        <v>375.8479685400927</v>
+        <v>120.7623919591481</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>120.7623919591481</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>120.7623919591481</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X25" t="n">
-        <v>1244.231782352015</v>
+        <v>268.6754855415412</v>
       </c>
       <c r="Y25" t="n">
-        <v>1023.439203208485</v>
+        <v>268.6754855415412</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,43 +6209,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>452.5377573864724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5377573864724</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>503.0396462065434</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C28" t="n">
-        <v>503.0396462065434</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D28" t="n">
-        <v>352.9230067942076</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E28" t="n">
-        <v>352.9230067942076</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>206.0330592962972</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>206.0330592962972</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>874.9271131227923</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>874.9271131227923</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045607</v>
+        <v>874.9271131227923</v>
       </c>
       <c r="X28" t="n">
-        <v>503.0396462065434</v>
+        <v>874.9271131227923</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.0396462065434</v>
+        <v>654.1345339792622</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,22 +6476,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,16 +6543,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1609.589088435861</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542186</v>
+        <v>494.8466681110224</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076825</v>
+        <v>381.6713504644862</v>
       </c>
       <c r="D31" t="n">
-        <v>232.0013381767178</v>
+        <v>287.3155763335212</v>
       </c>
       <c r="E31" t="n">
-        <v>232.0013381767178</v>
+        <v>287.3155763335212</v>
       </c>
       <c r="F31" t="n">
-        <v>232.0013381767178</v>
+        <v>196.1864941169817</v>
       </c>
       <c r="G31" t="n">
-        <v>119.586881777909</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>119.586881777909</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>957.9946671386972</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>785.7659815220508</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030876</v>
+        <v>620.7342676598913</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1954.109744073479</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506717</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103119</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,25 +6938,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,16 +7017,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1185.741597681017</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1954.109744073479</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7157,28 +7157,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,13 +7254,13 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,7 +7491,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
@@ -7500,13 +7500,13 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,7 +7728,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
         <v>1288.32563221405</v>
@@ -7737,13 +7737,13 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,10 +7837,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783528</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8778,16 +8778,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10674,10 +10674,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10686,7 +10686,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -11157,10 +11157,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -11394,10 +11394,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.3959458291062</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0090221022797</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>48.47742094949996</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>39.17090854091409</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>140.6890397260904</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>142.0733523581683</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.0656151785722</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>39.56282852190495</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>87.10939797039845</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>69.25255112518732</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>41.18602020988465</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>107.0211749436708</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>33.06989642126796</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.055155962603749e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935690.9158941216</v>
+        <v>935690.9158941215</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852504</v>
@@ -26329,31 +26329,31 @@
         <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="J2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="K2" t="n">
-        <v>488186.5648143237</v>
+        <v>488186.5648143239</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="M2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="N2" t="n">
+        <v>492625.0619185704</v>
+      </c>
+      <c r="O2" t="n">
         <v>492625.0619185702</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>492625.06191857</v>
-      </c>
-      <c r="O2" t="n">
-        <v>492625.0619185703</v>
-      </c>
-      <c r="P2" t="n">
-        <v>492625.0619185703</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806192</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758901</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758875</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758513</v>
+        <v>787.7936905758476</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477242</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189632</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400034</v>
+        <v>-319261.0345400033</v>
       </c>
       <c r="C6" t="n">
+        <v>270706.8446745414</v>
+      </c>
+      <c r="D6" t="n">
         <v>270706.8446745415</v>
       </c>
-      <c r="D6" t="n">
-        <v>270706.8446745414</v>
-      </c>
       <c r="E6" t="n">
-        <v>-148700.2844309385</v>
+        <v>-148797.7435569107</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459578</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.7520459577</v>
+        <v>376362.2929199854</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.7520459578</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.7520459578</v>
+        <v>376362.2929199856</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.5328533649</v>
+        <v>199939.0737273929</v>
       </c>
       <c r="K6" t="n">
-        <v>328443.3347764828</v>
+        <v>328424.8410385487</v>
       </c>
       <c r="L6" t="n">
-        <v>361360.4683657813</v>
+        <v>361360.4683657815</v>
       </c>
       <c r="M6" t="n">
-        <v>236902.3599328113</v>
+        <v>236902.3599328108</v>
       </c>
       <c r="N6" t="n">
-        <v>371703.3751666483</v>
+        <v>371703.3751666486</v>
       </c>
       <c r="O6" t="n">
         <v>371703.3751666485</v>
       </c>
       <c r="P6" t="n">
-        <v>327540.7698638028</v>
+        <v>327540.7698638026</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>366.7855376854477</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>159.4099641688174</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>9.265403778281986</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>197.241318032103</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>9.902904213431469</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>86.9383544042894</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>393.2545171770619</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>350.1779222016852</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>120.1051426060691</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>61.04368814949335</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>182.1061044198242</v>
+        <v>37.74832847964836</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32078,19 +32078,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O15" t="n">
-        <v>233.2909036464248</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,25 +32309,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>126.0475280469431</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>212.6272478467029</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,25 +32546,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>322.7668397349901</v>
+        <v>212.6272478467029</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,28 +32783,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>155.8673437717546</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>345.0922141393206</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,40 +33175,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,25 +33257,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9375118102116744</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,25 +33494,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>348.9381740704318</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,25 +33731,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>284.1918478338457</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,22 +33968,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33995,7 +33995,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,28 +34199,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,16 +34229,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,28 +34436,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,16 +34466,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.29709682323549</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>308.7299024580439</v>
+        <v>164.372126517868</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5569784787099</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>358.3334935705281</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>536.1982776746845</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>646.3378695629717</v>
+        <v>536.1982776746845</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>503.8680060319748</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>693.0928763995408</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>324.5085416381933</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37005,10 +37005,10 @@
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>672.5092038984134</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>516.4778133574307</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>274.515464094862</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>274.515464094862</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
